--- a/Nowbe API.xlsx
+++ b/Nowbe API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="136">
   <si>
     <t>Parameters to send</t>
   </si>
@@ -191,9 +191,6 @@
     <t>removeCouple.php</t>
   </si>
   <si>
-    <t>remove current couple from specified token</t>
-  </si>
-  <si>
     <t>removeFriend.php</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>token, couple</t>
   </si>
   <si>
-    <t>[success:0] [success:1, img]</t>
-  </si>
-  <si>
     <t>returns 0 if couple hadn’t been found. If it’s been found Nowbe returns 1 and couple’s image</t>
   </si>
   <si>
@@ -429,6 +423,15 @@
   </si>
   <si>
     <t>Coordinates</t>
+  </si>
+  <si>
+    <t>token, token2</t>
+  </si>
+  <si>
+    <t>remove current couple from specified token. Token2 is the other side person.</t>
+  </si>
+  <si>
+    <t>[success:0] [success:1, img] ["success":"already_paired"]</t>
   </si>
 </sst>
 </file>
@@ -644,15 +647,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -661,6 +655,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1821,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -1943,7 +1946,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1953,7 +1956,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1970,7 +1973,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1987,7 +1990,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2004,7 +2007,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2021,7 +2024,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2038,7 +2041,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2055,7 +2058,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2072,7 +2075,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2089,11 +2092,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>27</v>
@@ -2102,12 +2105,12 @@
         <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>34</v>
@@ -2119,15 +2122,15 @@
         <v>7</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>27</v>
@@ -2136,15 +2139,15 @@
         <v>7</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>27</v>
@@ -2153,15 +2156,15 @@
         <v>7</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>27</v>
@@ -2170,66 +2173,66 @@
         <v>7</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="B22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="D23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>35</v>
@@ -2238,15 +2241,15 @@
         <v>7</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>27</v>
@@ -2255,15 +2258,15 @@
         <v>7</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>35</v>
@@ -2272,15 +2275,15 @@
         <v>7</v>
       </c>
       <c r="E26" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>35</v>
@@ -2289,15 +2292,15 @@
         <v>7</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>35</v>
@@ -2306,32 +2309,32 @@
         <v>7</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="10" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>27</v>
@@ -2340,15 +2343,15 @@
         <v>7</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>27</v>
@@ -2357,15 +2360,15 @@
         <v>7</v>
       </c>
       <c r="E31" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>35</v>
@@ -2374,15 +2377,15 @@
         <v>7</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>27</v>
@@ -2391,15 +2394,15 @@
         <v>7</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>35</v>
@@ -2408,15 +2411,15 @@
         <v>7</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>35</v>
@@ -2425,75 +2428,75 @@
         <v>7</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="B38" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="D38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="10" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="B40" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>35</v>
@@ -2502,32 +2505,32 @@
         <v>7</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>128</v>
+      <c r="A41" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>35</v>
@@ -2536,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Nowbe API.xlsx
+++ b/Nowbe API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
   <si>
     <t>Parameters to send</t>
   </si>
@@ -425,13 +425,10 @@
     <t>Coordinates</t>
   </si>
   <si>
-    <t>token, token2</t>
-  </si>
-  <si>
-    <t>remove current couple from specified token. Token2 is the other side person.</t>
-  </si>
-  <si>
     <t>[success:0] [success:1, img] ["success":"already_paired"]</t>
+  </si>
+  <si>
+    <t>remove current couple from specified token.</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2096,7 +2093,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>27</v>
@@ -2320,7 +2317,7 @@
         <v>90</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>7</v>
